--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42985,6 +42985,41 @@
         <v>5682100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>4941900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43020,6 +43020,41 @@
         <v>4941900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2584100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43055,6 +43055,41 @@
         <v>2584100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1201800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43090,6 +43090,41 @@
         <v>1201800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1923400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43125,6 +43125,41 @@
         <v>1923400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2174500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43160,6 +43160,41 @@
         <v>2174500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1465900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43195,6 +43195,41 @@
         <v>1465900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3677200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43230,6 +43230,41 @@
         <v>3677200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>4756400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43265,6 +43265,41 @@
         <v>4756400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1574100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43300,6 +43300,41 @@
         <v>1574100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>6554200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43335,6 +43335,41 @@
         <v>6554200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2972200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43370,6 +43370,41 @@
         <v>2972200</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>6894100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43405,6 +43405,76 @@
         <v>6894100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>5688900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>17670500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43475,6 +43475,76 @@
         <v>17670500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>8077800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>10033700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43545,6 +43545,41 @@
         <v>10033700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>12963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43580,6 +43580,41 @@
         <v>12963000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>5000200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43615,6 +43615,41 @@
         <v>5000200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>7775600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43650,6 +43650,41 @@
         <v>7775600</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>222374800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43685,6 +43685,76 @@
         <v>222374800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>111968500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>158714400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43755,6 +43755,41 @@
         <v>158714400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>66588400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43790,6 +43790,41 @@
         <v>66588400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>127502200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2116"/>
+  <dimension ref="A1:I2117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74450,6 +74450,41 @@
         <v>127502200</v>
       </c>
     </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2117" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2117" t="n">
+        <v>59688300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2117"/>
+  <dimension ref="A1:I2118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74485,6 +74485,41 @@
         <v>59688300</v>
       </c>
     </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2118" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2118" t="n">
+        <v>150954300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2118"/>
+  <dimension ref="A1:I2119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74520,6 +74520,41 @@
         <v>150954300</v>
       </c>
     </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2119" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2119" t="n">
+        <v>46070200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2119"/>
+  <dimension ref="A1:I2120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74555,6 +74555,41 @@
         <v>46070200</v>
       </c>
     </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2120" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2120" t="n">
+        <v>47667800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2120"/>
+  <dimension ref="A1:I2121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74590,6 +74590,41 @@
         <v>47667800</v>
       </c>
     </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2121" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2121" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2121" t="n">
+        <v>124720900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2121"/>
+  <dimension ref="A1:I2122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74625,6 +74625,41 @@
         <v>124720900</v>
       </c>
     </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2122" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2122" t="n">
+        <v>53045300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2122"/>
+  <dimension ref="A1:I2123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74660,6 +74660,41 @@
         <v>53045300</v>
       </c>
     </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2123" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2123" t="n">
+        <v>79530900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2123"/>
+  <dimension ref="A1:I2124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74695,6 +74695,41 @@
         <v>79530900</v>
       </c>
     </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>140718400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2124"/>
+  <dimension ref="A1:I2125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74730,6 +74730,41 @@
         <v>140718400</v>
       </c>
     </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2125" t="n">
+        <v>72592000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2125"/>
+  <dimension ref="A1:I2126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74765,6 +74765,41 @@
         <v>72592000</v>
       </c>
     </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2126" t="n">
+        <v>80409500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2126"/>
+  <dimension ref="A1:I2127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74800,6 +74800,41 @@
         <v>80409500</v>
       </c>
     </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>48110500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2127"/>
+  <dimension ref="A1:I2128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74835,6 +74835,41 @@
         <v>48110500</v>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>87743700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2128"/>
+  <dimension ref="A1:I2129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74870,6 +74870,41 @@
         <v>87743700</v>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>90286800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2129"/>
+  <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74905,6 +74905,41 @@
         <v>90286800</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>328962300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2130"/>
+  <dimension ref="A1:I2131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74940,6 +74940,41 @@
         <v>328962300</v>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>431875500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2131"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74975,6 +74975,41 @@
         <v>431875500</v>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2132" t="n">
+        <v>440783400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75010,6 +75010,41 @@
         <v>440783400</v>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>211884000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75045,6 +75045,41 @@
         <v>211884000</v>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>180428000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2134"/>
+  <dimension ref="A1:I2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75080,6 +75080,41 @@
         <v>180428000</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>152661100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2135"/>
+  <dimension ref="A1:I2136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75115,6 +75115,41 @@
         <v>152661100</v>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2136" t="n">
+        <v>170823700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2136"/>
+  <dimension ref="A1:I2137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75150,6 +75150,41 @@
         <v>170823700</v>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>86382500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2137"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75185,6 +75185,41 @@
         <v>86382500</v>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2138" t="n">
+        <v>70350600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2138"/>
+  <dimension ref="A1:I2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75220,6 +75220,41 @@
         <v>70350600</v>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>107450100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2139"/>
+  <dimension ref="A1:I2140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75255,6 +75255,41 @@
         <v>107450100</v>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>126800900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75290,6 +75290,41 @@
         <v>126800900</v>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2141" t="n">
+        <v>86799500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2141"/>
+  <dimension ref="A1:I2143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75325,6 +75325,76 @@
         <v>86799500</v>
       </c>
     </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I2142" t="n">
+        <v>62858700</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>165694000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2143"/>
+  <dimension ref="A1:I2144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75395,6 +75395,41 @@
         <v>165694000</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>119268700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2144"/>
+  <dimension ref="A1:I2147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75430,6 +75430,111 @@
         <v>119268700</v>
       </c>
     </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>61703200</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2146" t="n">
+        <v>61502700</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>23474400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2147"/>
+  <dimension ref="A1:I2148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75535,6 +75535,41 @@
         <v>23474400</v>
       </c>
     </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2148" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2148" t="n">
+        <v>38701200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2148"/>
+  <dimension ref="A1:I2149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75570,6 +75570,41 @@
         <v>38701200</v>
       </c>
     </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2149" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2149" t="n">
+        <v>28658000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5199.xlsx
+++ b/data/5199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2149"/>
+  <dimension ref="A1:I2152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75605,6 +75605,111 @@
         <v>28658000</v>
       </c>
     </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H2150" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2150" t="n">
+        <v>147768200</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>87407000</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>5199</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>HIBISCS</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>133535300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
